--- a/댓글달기.xlsx
+++ b/댓글달기.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITSC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\spring0303_jsj\jspstudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>1단 댓글</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,9 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게시글3</t>
-  </si>
-  <si>
     <t>게시글4</t>
   </si>
   <si>
@@ -99,6 +96,79 @@
   </si>
   <si>
     <t>order by groupno desc, depth asc, groupord desc(asc)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다단 댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부모groupno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부모depth + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건 : 최근 댓글을 위에 배치한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   [re] 댓글2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   [re] 댓글3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      [re] 대댓글1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      [re] 대댓글2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수행1. 부모groupord + 1
+수행2. 같은 그룹 + 기존 댓글 중 부모groupord보다 큰 것들만 + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order by groupno desc, groupord asc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        [re] 대대댓글1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -132,12 +202,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -154,7 +230,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -165,6 +241,24 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -447,95 +541,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="5" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="5" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -546,58 +630,58 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -606,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -614,16 +698,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -631,35 +715,302 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>8</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="B37:E37"/>
     <mergeCell ref="B2:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B23:E24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A20:E20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
